--- a/sedanCluster.xlsx
+++ b/sedanCluster.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttran\Desktop\CarMax\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670FDA1-B801-4B60-912F-0844ACFA57A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -115,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,99 +126,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="7"/>
-      </right>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="7"/>
-      </right>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -237,54 +153,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="7"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -292,43 +162,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -375,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,27 +251,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,24 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,221 +460,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>